--- a/app/src/main/assets/template.xlsx
+++ b/app/src/main/assets/template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiliu/Desktop/Workspace/App/SendExcelToWeiChar/app/src/main/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D93E966-6498-9A4F-9A77-BB65996F4AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20320" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,15 +126,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -166,352 +168,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -534,251 +204,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -819,74 +247,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1171,35 +555,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.13333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="7.88333333333333" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.3833333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.3833333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="12.3833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.9" customHeight="1" spans="1:11">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +601,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="36" spans="1:12">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1265,9 +649,7 @@
       <c r="C3" s="8">
         <v>29</v>
       </c>
-      <c r="D3" s="8">
-        <v>36.4</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1283,13 +665,13 @@
       <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1299,9 +681,7 @@
       <c r="C4" s="8">
         <v>47</v>
       </c>
-      <c r="D4" s="8">
-        <v>36.2</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1321,9 +701,9 @@
         <v>19</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1333,9 +713,7 @@
       <c r="C5" s="8">
         <v>56</v>
       </c>
-      <c r="D5" s="8">
-        <v>36.1</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1355,9 +733,9 @@
         <v>19</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1367,9 +745,7 @@
       <c r="C6" s="8">
         <v>38</v>
       </c>
-      <c r="D6" s="9">
-        <v>36.3</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1389,9 +765,9 @@
         <v>19</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1401,9 +777,7 @@
       <c r="C7" s="8">
         <v>45</v>
       </c>
-      <c r="D7" s="10">
-        <v>36.2</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1423,9 +797,9 @@
         <v>19</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1435,9 +809,7 @@
       <c r="C8" s="8">
         <v>46</v>
       </c>
-      <c r="D8" s="8">
-        <v>36.1</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1457,9 +829,9 @@
         <v>19</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1469,9 +841,7 @@
       <c r="C9" s="8">
         <v>26</v>
       </c>
-      <c r="D9" s="8">
-        <v>36.1</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1491,9 +861,9 @@
         <v>19</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1507,9 +877,9 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1523,9 +893,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1539,9 +909,9 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1555,9 +925,9 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1571,9 +941,9 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1587,9 +957,9 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1603,9 +973,9 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1619,9 +989,9 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1635,9 +1005,9 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="12" spans="1:2">
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
@@ -1645,19 +1015,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="48.4" customHeight="1" spans="1:7">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="48.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="13" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1665,40 +1035,34 @@
   <mergeCells count="1">
     <mergeCell ref="B20:G20"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
-  <headerFooter/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/app/src/main/assets/template.xlsx
+++ b/app/src/main/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiliu/Desktop/Workspace/App/SendExcelToWeiChar/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D93E966-6498-9A4F-9A77-BB65996F4AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072ACE63-EE2A-B74D-94E9-7DCD406FA633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20320" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>报告部门：</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>京津</t>
-  </si>
-  <si>
-    <t>上班</t>
   </si>
   <si>
     <t>否</t>
@@ -564,7 +561,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -653,20 +650,18 @@
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="14"/>
@@ -676,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8">
         <v>47</v>
@@ -685,20 +680,18 @@
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="14"/>
@@ -708,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8">
         <v>56</v>
@@ -717,20 +710,18 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="14"/>
@@ -740,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>38</v>
@@ -749,20 +740,18 @@
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="14"/>
@@ -772,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8">
         <v>45</v>
@@ -781,20 +770,18 @@
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="14"/>
@@ -804,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8">
         <v>46</v>
@@ -813,20 +800,18 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="14"/>
@@ -836,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <v>26</v>
@@ -845,20 +830,18 @@
       <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="14"/>
@@ -1009,16 +992,16 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="48.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1028,7 +1011,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/template.xlsx
+++ b/app/src/main/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiliu/Desktop/Workspace/App/SendExcelToWeiChar/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072ACE63-EE2A-B74D-94E9-7DCD406FA633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F5CB9D-A221-5146-A28E-8E4009F146E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20320" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>葛丽君</t>
   </si>
   <si>
-    <t>朱琳</t>
-  </si>
-  <si>
     <t>注：</t>
   </si>
   <si>
@@ -118,6 +115,10 @@
   </si>
   <si>
     <t>3、如有特殊情况请在备注列写明</t>
+  </si>
+  <si>
+    <t>孙娟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -169,6 +170,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -561,7 +572,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -820,11 +831,11 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
@@ -992,26 +1003,26 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="48.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
